--- a/src/src_thesis/tables/opensource_chessboard_projects.xlsx
+++ b/src/src_thesis/tables/opensource_chessboard_projects.xlsx
@@ -22,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
-    <t xml:space="preserve">Automated Chess Board (Michael Guerero)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated Chess Board (Akash Ravichandran)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIY Super Smart Chessboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erkennung Schfigurstellung</t>
+    <t xml:space="preserve">Automated Chess Board (Michael Guerero) [@actproject1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated Chess Board (Akash Ravichandran) [@actproject2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIY Super Smart Chessboard [@actproject3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erkennung Schachfigurstellung</t>
   </si>
   <si>
     <t xml:space="preserve">nein (Manuell per Ausgangsposition)</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">nein</t>
   </si>
   <si>
-    <t xml:space="preserve">Tischabmessungen (LxBxH) </t>
+    <t xml:space="preserve">Abmessungen (LxBxH) </t>
   </si>
   <si>
     <t xml:space="preserve">keine Angabe</t>
@@ -58,10 +58,10 @@
     <t xml:space="preserve">Konnektivität</t>
   </si>
   <si>
-    <t xml:space="preserve">USB / Seriell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethernet / Wifi</t>
+    <t xml:space="preserve">(+usb) / Seriell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethernet, (+wlan)</t>
   </si>
   <si>
     <t xml:space="preserve">Automatisches Bewegen der Figuren</t>
@@ -88,10 +88,10 @@
     <t xml:space="preserve">Licence</t>
   </si>
   <si>
-    <t xml:space="preserve">GPL3+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPL</t>
+    <t xml:space="preserve">(+gpl) 3+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(+gpl)</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Besonderheiten</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprachsteuerung per Amazon Alexa</t>
+    <t xml:space="preserve">Sprachsteuerung (Amazon Alexa)</t>
   </si>
   <si>
     <t xml:space="preserve">Zuganzeige über LED Matrix</t>
@@ -113,11 +113,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -136,14 +137,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="22"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Amiri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,21 +184,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -225,22 +217,23 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="32.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -248,142 +241,142 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
     </row>
